--- a/data.xlsx
+++ b/data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="42760" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="11020" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grais 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Grails 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>flush</t>
   </si>
@@ -66,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +100,22 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,17 +134,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -221,7 +257,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Grais 3'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -244,7 +280,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -271,27 +307,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$J$2</c:f>
+              <c:f>'Grais 3'!$E$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2065.0</c:v>
+                  <c:v>2475.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3008.0</c:v>
+                  <c:v>3534.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4730.0</c:v>
+                  <c:v>5182.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6253.0</c:v>
+                  <c:v>6270.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8009.0</c:v>
+                  <c:v>7481.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15533.0</c:v>
+                  <c:v>16054.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>'Grais 3'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,7 +362,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -353,27 +389,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$J$3</c:f>
+              <c:f>'Grais 3'!$E$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1473.0</c:v>
+                  <c:v>1552.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2575.0</c:v>
+                  <c:v>2677.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3725.0</c:v>
+                  <c:v>3667.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5360.0</c:v>
+                  <c:v>5464.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6265.0</c:v>
+                  <c:v>6273.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15254.0</c:v>
+                  <c:v>18838.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +421,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Grais 3'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -408,7 +444,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -435,27 +471,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$J$4</c:f>
+              <c:f>'Grais 3'!$E$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2850.0</c:v>
+                  <c:v>4074.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3852.0</c:v>
+                  <c:v>4219.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5577.0</c:v>
+                  <c:v>6386.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7824.0</c:v>
+                  <c:v>10618.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11402.0</c:v>
+                  <c:v>10512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19236.0</c:v>
+                  <c:v>17389.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,7 +503,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$5</c:f>
+              <c:f>'Grais 3'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +526,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -517,27 +553,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$J$5</c:f>
+              <c:f>'Grais 3'!$E$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1642.0</c:v>
+                  <c:v>1382.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2957.0</c:v>
+                  <c:v>2755.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4641.0</c:v>
+                  <c:v>4198.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6898.0</c:v>
+                  <c:v>5599.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9827.0</c:v>
+                  <c:v>7031.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16529.0</c:v>
+                  <c:v>13854.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +585,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>'Grais 3'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -572,7 +608,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -599,27 +635,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$J$6</c:f>
+              <c:f>'Grais 3'!$E$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1493.0</c:v>
+                  <c:v>1403.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3072.0</c:v>
+                  <c:v>2804.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4789.0</c:v>
+                  <c:v>4427.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6077.0</c:v>
+                  <c:v>5900.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7695.0</c:v>
+                  <c:v>7147.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16825.0</c:v>
+                  <c:v>14825.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +667,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>'Grais 3'!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -654,7 +690,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$J$1</c:f>
+              <c:f>'Grais 3'!$E$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -681,27 +717,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:f>'Grais 3'!$E$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>823.0</c:v>
+                  <c:v>860.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3493.0</c:v>
+                  <c:v>1399.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1851.0</c:v>
+                  <c:v>1816.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2426.0</c:v>
+                  <c:v>3240.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2884.0</c:v>
+                  <c:v>2914.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5576.0</c:v>
+                  <c:v>5286.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +939,786 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2473.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2189.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1355.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1578.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2403.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3520.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>save without validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1515.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1078.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1290.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4271.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cleanup GORM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1134.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2078.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2597.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5079.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cleanup GORM without validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1388.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1363.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1742.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2150.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4494.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>batch processing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>556.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>871.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3167.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2726.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grails 2'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hibernate stateless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grails 2'!$E$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>558.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1173.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1703262176"/>
+        <c:axId val="1657655072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1703262176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657655072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1657655072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703262176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1459,6 +2274,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1477,6 +2808,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1760,7 +3126,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,22 +3177,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>2065</v>
+        <v>2475</v>
       </c>
       <c r="F2" s="3">
-        <v>3008</v>
+        <v>3534</v>
       </c>
       <c r="G2" s="3">
-        <v>4730</v>
+        <v>5182</v>
       </c>
       <c r="H2" s="3">
-        <v>6253</v>
+        <v>6270</v>
       </c>
       <c r="I2" s="3">
-        <v>8009</v>
+        <v>7481</v>
       </c>
       <c r="J2" s="3">
-        <v>15533</v>
+        <v>16054</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1843,22 +3209,22 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>1473</v>
+        <v>1552</v>
       </c>
       <c r="F3" s="3">
-        <v>2575</v>
+        <v>2677</v>
       </c>
       <c r="G3" s="3">
-        <v>3725</v>
+        <v>3667</v>
       </c>
       <c r="H3" s="3">
-        <v>5360</v>
+        <v>5464</v>
       </c>
       <c r="I3" s="3">
-        <v>6265</v>
+        <v>6273</v>
       </c>
       <c r="J3" s="3">
-        <v>15254</v>
+        <v>18838</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1875,22 +3241,22 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>2850</v>
+        <v>4074</v>
       </c>
       <c r="F4" s="3">
-        <v>3852</v>
+        <v>4219</v>
       </c>
       <c r="G4" s="3">
-        <v>5577</v>
+        <v>6386</v>
       </c>
       <c r="H4" s="3">
-        <v>7824</v>
+        <v>10618</v>
       </c>
       <c r="I4" s="3">
-        <v>11402</v>
+        <v>10512</v>
       </c>
       <c r="J4" s="3">
-        <v>19236</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1907,22 +3273,22 @@
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>1642</v>
+        <v>1382</v>
       </c>
       <c r="F5" s="3">
-        <v>2957</v>
+        <v>2755</v>
       </c>
       <c r="G5" s="3">
-        <v>4641</v>
+        <v>4198</v>
       </c>
       <c r="H5" s="3">
-        <v>6898</v>
+        <v>5599</v>
       </c>
       <c r="I5" s="3">
-        <v>9827</v>
+        <v>7031</v>
       </c>
       <c r="J5" s="3">
-        <v>16529</v>
+        <v>13854</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1939,22 +3305,22 @@
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>1493</v>
+        <v>1403</v>
       </c>
       <c r="F6" s="3">
-        <v>3072</v>
+        <v>2804</v>
       </c>
       <c r="G6" s="3">
-        <v>4789</v>
+        <v>4427</v>
       </c>
       <c r="H6" s="3">
-        <v>6077</v>
+        <v>5900</v>
       </c>
       <c r="I6" s="3">
-        <v>7695</v>
+        <v>7147</v>
       </c>
       <c r="J6" s="3">
-        <v>16825</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1971,22 +3337,22 @@
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F7" s="3">
-        <v>3493</v>
+        <v>1399</v>
       </c>
       <c r="G7" s="3">
-        <v>1851</v>
+        <v>1816</v>
       </c>
       <c r="H7" s="3">
-        <v>2426</v>
+        <v>3240</v>
       </c>
       <c r="I7" s="3">
-        <v>2884</v>
+        <v>2914</v>
       </c>
       <c r="J7" s="3">
-        <v>5576</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2000,23 +3366,252 @@
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3">
-        <v>2463</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4709</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7346</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9269</v>
-      </c>
-      <c r="I8" s="3">
-        <v>11850</v>
-      </c>
-      <c r="J8" s="3">
-        <v>24707</v>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F1" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G1" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H1" s="4">
+        <v>40000</v>
+      </c>
+      <c r="I1" s="4">
+        <v>50000</v>
+      </c>
+      <c r="J1" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2473</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2189</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1355</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1578</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2403</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>340</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1515</v>
+      </c>
+      <c r="G3" s="3">
+        <v>818</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1078</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1290</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1134</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1646</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2078</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2597</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>487</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1388</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1363</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1742</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2150</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>333</v>
+      </c>
+      <c r="F6" s="3">
+        <v>556</v>
+      </c>
+      <c r="G6" s="3">
+        <v>871</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1129</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3167</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>558</v>
+      </c>
+      <c r="F7" s="3">
+        <v>354</v>
+      </c>
+      <c r="G7" s="3">
+        <v>424</v>
+      </c>
+      <c r="H7" s="3">
+        <v>530</v>
+      </c>
+      <c r="I7" s="3">
+        <v>664</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
